--- a/data/dataframe/10053.xlsx
+++ b/data/dataframe/10053.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/DataFiles/idis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E411A7-2C68-9B48-A899-EFE5CD8C749F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45608A63-9E5E-5147-925A-7FA8F493E727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35280" yWindow="4580" windowWidth="30720" windowHeight="17020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="format" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="17">
   <si>
-    <t>col</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -81,17 +78,20 @@
     <t>syst_u</t>
   </si>
   <si>
-    <t>F2t/F2d</t>
-  </si>
-  <si>
     <t>t/d</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>F2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -132,6 +132,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -487,9 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -504,48 +508,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7">
         <v>0.19500000000000001</v>
@@ -561,13 +565,13 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="7">
         <v>3.0000000000000001E-3</v>
@@ -588,7 +592,7 @@
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7">
         <v>0.22500000000000001</v>
@@ -604,13 +608,13 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="7">
         <v>3.0000000000000001E-3</v>
@@ -631,7 +635,7 @@
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7">
         <v>0.255</v>
@@ -647,13 +651,13 @@
         <v>0.94299999999999995</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
         <v>4.0000000000000001E-3</v>
@@ -674,7 +678,7 @@
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="7">
         <v>0.28499999999999998</v>
@@ -690,13 +694,13 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
         <v>4.0000000000000001E-3</v>
@@ -717,7 +721,7 @@
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7">
         <v>0.315</v>
@@ -733,13 +737,13 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
         <v>5.0000000000000001E-3</v>
@@ -760,7 +764,7 @@
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="7">
         <v>0.34499999999999997</v>
@@ -776,13 +780,13 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
         <v>5.0000000000000001E-3</v>
@@ -803,7 +807,7 @@
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7">
         <v>0.375</v>
@@ -819,13 +823,13 @@
         <v>0.93100000000000005</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
         <v>7.0000000000000001E-3</v>
@@ -846,7 +850,7 @@
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7">
         <v>0.40500000000000003</v>
@@ -862,13 +866,13 @@
         <v>0.89500000000000002</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7">
         <v>8.9999999999999993E-3</v>
@@ -889,7 +893,7 @@
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7">
         <v>0.435</v>
@@ -905,13 +909,13 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
         <v>8.9999999999999993E-3</v>
@@ -932,7 +936,7 @@
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7">
         <v>0.46500000000000002</v>
@@ -948,13 +952,13 @@
         <v>0.89</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
         <v>8.9999999999999993E-3</v>
@@ -975,7 +979,7 @@
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="7">
         <v>0.495</v>
@@ -991,13 +995,13 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
         <v>8.9999999999999993E-3</v>
@@ -1018,7 +1022,7 @@
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="7">
         <v>0.52500000000000002</v>
@@ -1034,13 +1038,13 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
         <v>0.01</v>
@@ -1061,7 +1065,7 @@
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7">
         <v>0.55500000000000005</v>
@@ -1077,13 +1081,13 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
         <v>0.01</v>
@@ -1104,7 +1108,7 @@
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="7">
         <v>0.58499999999999996</v>
@@ -1120,13 +1124,13 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" s="7">
         <v>0.01</v>
@@ -1147,7 +1151,7 @@
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="7">
         <v>0.61499999999999999</v>
@@ -1163,13 +1167,13 @@
         <v>0.86</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
         <v>0.01</v>
@@ -1190,7 +1194,7 @@
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="7">
         <v>0.64500000000000002</v>
@@ -1206,13 +1210,13 @@
         <v>0.86199999999999999</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
         <v>1.0999999999999999E-2</v>
@@ -1233,7 +1237,7 @@
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7">
         <v>0.67500000000000004</v>
@@ -1249,13 +1253,13 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
         <v>1.2E-2</v>
@@ -1276,7 +1280,7 @@
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="7">
         <v>0.70499999999999996</v>
@@ -1292,13 +1296,13 @@
         <v>0.86299999999999999</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
         <v>1.0999999999999999E-2</v>
@@ -1319,7 +1323,7 @@
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="7">
         <v>0.73499999999999999</v>
@@ -1335,13 +1339,13 @@
         <v>0.86499999999999999</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
         <v>1.0999999999999999E-2</v>
@@ -1362,7 +1366,7 @@
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="7">
         <v>0.76500000000000001</v>
@@ -1378,13 +1382,13 @@
         <v>0.86499999999999999</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" s="7">
         <v>1.0999999999999999E-2</v>
@@ -1405,7 +1409,7 @@
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="7">
         <v>0.79500000000000004</v>
@@ -1421,13 +1425,13 @@
         <v>0.87</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
         <v>1.2999999999999999E-2</v>
@@ -1447,6 +1451,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/data/dataframe/10053.xlsx
+++ b/data/dataframe/10053.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45608A63-9E5E-5147-925A-7FA8F493E727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225B4159-429C-0142-AB12-FCD8A12FB49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35280" yWindow="4580" windowWidth="30720" windowHeight="17020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -586,8 +588,8 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="M2">
-        <f>E2*0.012</f>
-        <v>1.1604E-2</v>
+        <f>E2*0.008</f>
+        <v>7.7359999999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -629,8 +631,8 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M22" si="1">E3*0.012</f>
-        <v>1.1483999999999999E-2</v>
+        <f t="shared" ref="M3:M21" si="1">E3*0.008</f>
+        <v>7.6559999999999996E-3</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -673,7 +675,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>1.1316E-2</v>
+        <v>7.5439999999999995E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -716,7 +718,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>1.1220000000000001E-2</v>
+        <v>7.4800000000000005E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -759,7 +761,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>1.1112E-2</v>
+        <v>7.4080000000000005E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -802,7 +804,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>1.11E-2</v>
+        <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -845,7 +847,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>1.1172000000000001E-2</v>
+        <v>7.4480000000000006E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -888,7 +890,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>1.0740000000000001E-2</v>
+        <v>7.1600000000000006E-3</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -931,7 +933,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>1.0656000000000001E-2</v>
+        <v>7.1040000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -974,7 +976,7 @@
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>1.068E-2</v>
+        <v>7.1200000000000005E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1017,7 +1019,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>1.0776000000000001E-2</v>
+        <v>7.1840000000000003E-3</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1060,7 +1062,7 @@
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>1.0620000000000001E-2</v>
+        <v>7.0800000000000004E-3</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1103,7 +1105,7 @@
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>1.0392E-2</v>
+        <v>6.9280000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1146,7 +1148,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>1.0332000000000001E-2</v>
+        <v>6.888E-3</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1189,7 +1191,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>1.0319999999999999E-2</v>
+        <v>6.8799999999999998E-3</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1232,7 +1234,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>1.0344000000000001E-2</v>
+        <v>6.8960000000000002E-3</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1275,7 +1277,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>1.014E-2</v>
+        <v>6.7599999999999995E-3</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1318,7 +1320,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>1.0356000000000001E-2</v>
+        <v>6.9040000000000004E-3</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1361,7 +1363,7 @@
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>1.038E-2</v>
+        <v>6.9199999999999999E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1404,7 +1406,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>1.038E-2</v>
+        <v>6.9199999999999999E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1446,8 +1448,8 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
-        <v>1.044E-2</v>
+        <f>E22*0.008</f>
+        <v>6.96E-3</v>
       </c>
     </row>
   </sheetData>
